--- a/Assessment/assessment.xlsx
+++ b/Assessment/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F39C5E-056C-4E1A-8797-A414590F4ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E415E4-62FC-45A8-829A-411B7EEC086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1AD85E11-5246-4794-A836-14A735C9866B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
     <sheet name="Test cases" sheetId="2" r:id="rId2"/>
     <sheet name="problem" sheetId="5" r:id="rId3"/>
-    <sheet name="defect-report" sheetId="4" r:id="rId4"/>
+    <sheet name="Defect-report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2050,7 +2050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438BB2E0-78DA-4E1C-8B55-02D845B9746B}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="107" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3839,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC7ECAE-B9E9-4E30-B2EF-EC6026EDCD13}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="138" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
